--- a/reports/resnet18_23_no_MMTM/prediction/7/probability_val_7.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/7/probability_val_7.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8340331315994263</v>
+        <v>0.9683093428611755</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1659668982028961</v>
+        <v>0.03169068321585655</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1955486834049225</v>
+        <v>0.178413525223732</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8044512867927551</v>
+        <v>0.8215864896774292</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7095967531204224</v>
+        <v>0.7032248973846436</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2904032170772552</v>
+        <v>0.2967751324176788</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8534340858459473</v>
+        <v>0.9814973473548889</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1465659141540527</v>
+        <v>0.0185026079416275</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2725893557071686</v>
+        <v>0.2372124791145325</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7274106740951538</v>
+        <v>0.7627874612808228</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4445239901542664</v>
+        <v>0.5714150071144104</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5554760098457336</v>
+        <v>0.4285849928855896</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9222679734230042</v>
+        <v>0.9468677639961243</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07773202657699585</v>
+        <v>0.05313217267394066</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1199726760387421</v>
+        <v>0.1169514879584312</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8800273537635803</v>
+        <v>0.8830485343933105</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1968181431293488</v>
+        <v>0.7286081314086914</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8031818270683289</v>
+        <v>0.2713918387889862</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1096858978271484</v>
+        <v>0.0767349973320961</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8903141021728516</v>
+        <v>0.9232649803161621</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2275948822498322</v>
+        <v>0.1452806890010834</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7724051475524902</v>
+        <v>0.8547192811965942</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2759562730789185</v>
+        <v>0.1417495161294937</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7240437269210815</v>
+        <v>0.8582504987716675</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1225648894906044</v>
+        <v>0.1026794537901878</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8774350881576538</v>
+        <v>0.8973205089569092</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2405780255794525</v>
+        <v>0.2180951535701752</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7594219446182251</v>
+        <v>0.7819048762321472</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.183506116271019</v>
+        <v>0.2732923030853271</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8164938688278198</v>
+        <v>0.7267076969146729</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1566018909215927</v>
+        <v>0.09792694449424744</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8433980941772461</v>
+        <v>0.902073085308075</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1865508258342743</v>
+        <v>0.1373540610074997</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8134491443634033</v>
+        <v>0.8626459240913391</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.09402954578399658</v>
+        <v>0.08919161558151245</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9059704542160034</v>
+        <v>0.9108083248138428</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1177064925432205</v>
+        <v>0.1275129318237305</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8822934627532959</v>
+        <v>0.8724870681762695</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2112090438604355</v>
+        <v>0.2542751133441925</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7887909412384033</v>
+        <v>0.7457249164581299</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4569091796875</v>
+        <v>0.6227817535400391</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5430908203125</v>
+        <v>0.3772182166576385</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
